--- a/ExecutionTestData/9/TestData.xlsx
+++ b/ExecutionTestData/9/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\ExecutionTestData\SkippedRerunBatches2\9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jai Mata Dii\ExecutionTestData\SkippedRerunBatches2\14\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="147">
   <si>
     <t>ApplicationActivity</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>AppName</t>
-  </si>
-  <si>
-    <t>DBS</t>
   </si>
   <si>
     <t>S2021219EUID</t>
@@ -452,9 +449,6 @@
     <t>OPPO_A53_Android_10.0.0_bd07c</t>
   </si>
   <si>
-    <t>11.0.0</t>
-  </si>
-  <si>
     <t>EndPoint</t>
   </si>
   <si>
@@ -470,47 +464,29 @@
     <t>121212</t>
   </si>
   <si>
-    <t>10.0.0</t>
-  </si>
-  <si>
-    <t>12.0.0</t>
-  </si>
-  <si>
-    <t>7.0.0</t>
-  </si>
-  <si>
-    <t>https://us.pcloudy.com</t>
-  </si>
-  <si>
-    <t>GOOGLE_Pixel2XL_Android_10.0.0_b877c</t>
-  </si>
-  <si>
-    <t>GOOGLE_Pixel3_Android_11.0.0_061f2</t>
-  </si>
-  <si>
-    <t>HUAWEI_Mate10_Android_10.0.0_2af65</t>
-  </si>
-  <si>
-    <t>GOOGLE_Pixel4_Android_12.0.0_3d061</t>
-  </si>
-  <si>
-    <t>HUAWEI_P40lite_Android_10.0.0_30b14</t>
-  </si>
-  <si>
-    <t>LG_G6_Android_7.0.0_650f3</t>
-  </si>
-  <si>
-    <t>LG_K20plus_Android_7.0.0_49518</t>
-  </si>
-  <si>
-    <t>LG_Phoenix2_Android_7.0.0_13103</t>
+    <t>DBS</t>
+  </si>
+  <si>
+    <t>14.1.0</t>
+  </si>
+  <si>
+    <t>APPLE_iPhone12Pro_iOS_14.1.0_51937</t>
+  </si>
+  <si>
+    <t>APPLE_iPhoneX_iOS_15.1.0_9431f</t>
+  </si>
+  <si>
+    <t>15.1.0</t>
+  </si>
+  <si>
+    <t>https://ind-west.pcloudy.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,6 +527,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -676,7 +657,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -991,7 +972,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1103,13 +1084,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>70</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>21</v>
@@ -1153,13 +1134,13 @@
         <v>5</v>
       </c>
       <c r="M3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="O3" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P3" s="5" t="s">
         <v>21</v>
@@ -1173,257 +1154,108 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="35.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="G2" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>30</v>
       </c>
@@ -1433,52 +1265,16 @@
       <c r="C9" s="18">
         <v>2</v>
       </c>
-      <c r="D9" s="18">
-        <v>3</v>
-      </c>
-      <c r="E9" s="18">
-        <v>4</v>
-      </c>
-      <c r="F9" s="18">
-        <v>5</v>
-      </c>
-      <c r="G9" s="18">
-        <v>6</v>
-      </c>
-      <c r="H9" s="18">
-        <v>7</v>
-      </c>
-      <c r="I9" s="18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1583,67 +1379,67 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>43</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>44</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>45</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>46</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>48</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>49</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>50</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>51</v>
-      </c>
-      <c r="U2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -1711,32 +1507,32 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1764,28 +1560,28 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
         <v>60</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>61</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>62</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>63</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>64</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>65</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>66</v>
-      </c>
-      <c r="H12" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -1814,32 +1610,32 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1867,327 +1663,327 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
